--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H2">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I2">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J2">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N2">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O2">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P2">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q2">
-        <v>9.29456593522325</v>
+        <v>0.3862237862235</v>
       </c>
       <c r="R2">
-        <v>37.178263740893</v>
+        <v>1.544895144894</v>
       </c>
       <c r="S2">
-        <v>0.04763189446990936</v>
+        <v>0.0002599430775673709</v>
       </c>
       <c r="T2">
-        <v>0.02692544348913862</v>
+        <v>0.0001179837335686082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H3">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I3">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J3">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P3">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q3">
-        <v>4.37337385551</v>
+        <v>0.22112610021</v>
       </c>
       <c r="R3">
-        <v>26.24024313306</v>
+        <v>1.32675660126</v>
       </c>
       <c r="S3">
-        <v>0.02241224425270694</v>
+        <v>0.0001488261496815103</v>
       </c>
       <c r="T3">
-        <v>0.0190038509744429</v>
+        <v>0.0001013244800922669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H4">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I4">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J4">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N4">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O4">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P4">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q4">
-        <v>40.47174651325116</v>
+        <v>2.355576116228333</v>
       </c>
       <c r="R4">
-        <v>242.830479079507</v>
+        <v>14.13345669737</v>
       </c>
       <c r="S4">
-        <v>0.2074057005315976</v>
+        <v>0.001585390975226609</v>
       </c>
       <c r="T4">
-        <v>0.1758640045017518</v>
+        <v>0.001079372923720578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H5">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I5">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J5">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N5">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O5">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P5">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q5">
-        <v>1.030999170586</v>
+        <v>0.05407066520325</v>
       </c>
       <c r="R5">
-        <v>4.123996682344</v>
+        <v>0.216282660813</v>
       </c>
       <c r="S5">
-        <v>0.005283565045873966</v>
+        <v>3.639158337833248E-05</v>
       </c>
       <c r="T5">
-        <v>0.002986703208996639</v>
+        <v>1.651751959555903E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H6">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I6">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J6">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N6">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O6">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P6">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q6">
-        <v>5.579582715160667</v>
+        <v>5.427044803827668</v>
       </c>
       <c r="R6">
-        <v>33.477496290964</v>
+        <v>32.562268822966</v>
       </c>
       <c r="S6">
-        <v>0.02859370700330393</v>
+        <v>0.003652604471094422</v>
       </c>
       <c r="T6">
-        <v>0.02424525364665531</v>
+        <v>0.002486782395488605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H7">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I7">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J7">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N7">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O7">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P7">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q7">
-        <v>49.56486034174767</v>
+        <v>1.505275232060167</v>
       </c>
       <c r="R7">
-        <v>297.389162050486</v>
+        <v>9.031651392360999</v>
       </c>
       <c r="S7">
-        <v>0.2540052126874512</v>
+        <v>0.001013106624616923</v>
       </c>
       <c r="T7">
-        <v>0.2153767893218005</v>
+        <v>0.0006897477508960536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H8">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I8">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J8">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N8">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O8">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P8">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q8">
-        <v>4.076362907368667</v>
+        <v>0.6752072815875</v>
       </c>
       <c r="R8">
-        <v>24.458177444212</v>
+        <v>2.70082912635</v>
       </c>
       <c r="S8">
-        <v>0.02089015121072177</v>
+        <v>0.0004544397963883712</v>
       </c>
       <c r="T8">
-        <v>0.01771323371126414</v>
+        <v>0.0002062624800853258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H9">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I9">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J9">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P9">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q9">
-        <v>1.91805180456</v>
+        <v>0.38657886525</v>
       </c>
       <c r="R9">
-        <v>17.26246624104</v>
+        <v>2.3194731915</v>
       </c>
       <c r="S9">
-        <v>0.009829446773452441</v>
+        <v>0.000260182059054841</v>
       </c>
       <c r="T9">
-        <v>0.01250191677846012</v>
+        <v>0.0001771383047904147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H10">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I10">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J10">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N10">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O10">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P10">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q10">
-        <v>17.74989035882088</v>
+        <v>4.118084392375</v>
       </c>
       <c r="R10">
-        <v>159.749013229388</v>
+        <v>24.70850635425</v>
       </c>
       <c r="S10">
-        <v>0.09096292503771568</v>
+        <v>0.002771625075459894</v>
       </c>
       <c r="T10">
-        <v>0.1156942954122534</v>
+        <v>0.001886990091342487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H11">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I11">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J11">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N11">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O11">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P11">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q11">
-        <v>0.4521703117493334</v>
+        <v>0.09452785708125</v>
       </c>
       <c r="R11">
-        <v>2.713021870496</v>
+        <v>0.378111428325</v>
       </c>
       <c r="S11">
-        <v>0.00231723877390009</v>
+        <v>6.362078919533318E-05</v>
       </c>
       <c r="T11">
-        <v>0.001964839390239976</v>
+        <v>2.887639213974201E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H12">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I12">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J12">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N12">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O12">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P12">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q12">
-        <v>2.447064680286222</v>
+        <v>9.487712305025001</v>
       </c>
       <c r="R12">
-        <v>22.023582122576</v>
+        <v>56.92627383015</v>
       </c>
       <c r="S12">
-        <v>0.01254048090301015</v>
+        <v>0.006385585827732614</v>
       </c>
       <c r="T12">
-        <v>0.01595003790393737</v>
+        <v>0.004347462898584539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H13">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I13">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J13">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N13">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O13">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P13">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q13">
-        <v>21.73790143769156</v>
+        <v>2.6315644808375</v>
       </c>
       <c r="R13">
-        <v>195.641112939224</v>
+        <v>15.789386885025</v>
       </c>
       <c r="S13">
-        <v>0.1114002993247414</v>
+        <v>0.001771141484201675</v>
       </c>
       <c r="T13">
-        <v>0.1416882662221583</v>
+        <v>0.001205836410070591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H14">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I14">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J14">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N14">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O14">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P14">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q14">
-        <v>3.069960066095</v>
+        <v>55.837418223691</v>
       </c>
       <c r="R14">
-        <v>18.41976039657</v>
+        <v>335.024509342146</v>
       </c>
       <c r="S14">
-        <v>0.0157326350594726</v>
+        <v>0.0375806743505004</v>
       </c>
       <c r="T14">
-        <v>0.01334005861860096</v>
+        <v>0.025585841589197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H15">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I15">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J15">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P15">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q15">
-        <v>1.4445088866</v>
+        <v>31.96879886225999</v>
       </c>
       <c r="R15">
-        <v>13.0005799794</v>
+        <v>287.71918976034</v>
       </c>
       <c r="S15">
-        <v>0.007402679729951782</v>
+        <v>0.02151619930932803</v>
       </c>
       <c r="T15">
-        <v>0.009415350431664717</v>
+        <v>0.02197313153546671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H16">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I16">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J16">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N16">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O16">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P16">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q16">
-        <v>13.36766519993667</v>
+        <v>340.5520153113144</v>
       </c>
       <c r="R16">
-        <v>120.30898679943</v>
+        <v>3064.96813780183</v>
       </c>
       <c r="S16">
-        <v>0.06850532047973139</v>
+        <v>0.2292042647020355</v>
       </c>
       <c r="T16">
-        <v>0.08713082590084849</v>
+        <v>0.234071797922244</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H17">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I17">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J17">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N17">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O17">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P17">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q17">
-        <v>0.34053513676</v>
+        <v>7.8171424295445</v>
       </c>
       <c r="R17">
-        <v>2.04321082056</v>
+        <v>46.902854577267</v>
       </c>
       <c r="S17">
-        <v>0.001745141603222041</v>
+        <v>0.005261229715516245</v>
       </c>
       <c r="T17">
-        <v>0.001479745204585054</v>
+        <v>0.003581973777535001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H18">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I18">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J18">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N18">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O18">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P18">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q18">
-        <v>1.842915122706667</v>
+        <v>784.6025574786215</v>
       </c>
       <c r="R18">
-        <v>16.58623610436</v>
+        <v>7061.423017307594</v>
       </c>
       <c r="S18">
-        <v>0.009444393557863933</v>
+        <v>0.528066915433841</v>
       </c>
       <c r="T18">
-        <v>0.01201217372704369</v>
+        <v>0.5392812933892805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.743059666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.229179</v>
+      </c>
+      <c r="I19">
+        <v>0.9680968505584552</v>
+      </c>
+      <c r="J19">
+        <v>0.9740720872985071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>58.14006033333333</v>
+      </c>
+      <c r="N19">
+        <v>174.420181</v>
+      </c>
+      <c r="O19">
+        <v>0.1512943327547681</v>
+      </c>
+      <c r="P19">
+        <v>0.1535595270978597</v>
+      </c>
+      <c r="Q19">
+        <v>217.6217148512665</v>
+      </c>
+      <c r="R19">
+        <v>1958.595433661399</v>
+      </c>
+      <c r="S19">
+        <v>0.1464675670472339</v>
+      </c>
+      <c r="T19">
+        <v>0.1495780490847839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.156593</v>
+      </c>
+      <c r="I20">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J20">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.917587</v>
+      </c>
+      <c r="N20">
+        <v>29.835174</v>
+      </c>
+      <c r="O20">
+        <v>0.03881912675247488</v>
+      </c>
+      <c r="P20">
+        <v>0.02626688714606001</v>
+      </c>
+      <c r="Q20">
+        <v>0.7786632336970001</v>
+      </c>
+      <c r="R20">
+        <v>4.671979402182001</v>
+      </c>
+      <c r="S20">
+        <v>0.0005240695280187368</v>
+      </c>
+      <c r="T20">
+        <v>0.000356799343209074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.156593</v>
+      </c>
+      <c r="I21">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J21">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.54082</v>
+      </c>
+      <c r="N21">
+        <v>25.62246</v>
+      </c>
+      <c r="O21">
+        <v>0.02222525493902415</v>
+      </c>
+      <c r="P21">
+        <v>0.02255801374660784</v>
+      </c>
+      <c r="Q21">
+        <v>0.44581087542</v>
+      </c>
+      <c r="R21">
+        <v>4.01229787878</v>
+      </c>
+      <c r="S21">
+        <v>0.0003000474209597697</v>
+      </c>
+      <c r="T21">
+        <v>0.0003064194262584415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.156593</v>
+      </c>
+      <c r="I22">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J22">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>90.98225666666667</v>
+      </c>
+      <c r="N22">
+        <v>272.94677</v>
+      </c>
+      <c r="O22">
+        <v>0.2367575770645437</v>
+      </c>
+      <c r="P22">
+        <v>0.2403023359096749</v>
+      </c>
+      <c r="Q22">
+        <v>4.749061506067778</v>
+      </c>
+      <c r="R22">
+        <v>42.74155355461001</v>
+      </c>
+      <c r="S22">
+        <v>0.003196296311821715</v>
+      </c>
+      <c r="T22">
+        <v>0.003264174972367789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.156593</v>
+      </c>
+      <c r="I23">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J23">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.0884365</v>
+      </c>
+      <c r="N23">
+        <v>4.176873000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.005434610919848834</v>
+      </c>
+      <c r="P23">
+        <v>0.003677318983104476</v>
+      </c>
+      <c r="Q23">
+        <v>0.1090115122815</v>
+      </c>
+      <c r="R23">
+        <v>0.6540690736890001</v>
+      </c>
+      <c r="S23">
+        <v>7.336883175892338E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.995129383417421E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.16913</v>
-      </c>
-      <c r="H19">
-        <v>0.50739</v>
-      </c>
-      <c r="I19">
-        <v>0.1867271339856154</v>
-      </c>
-      <c r="J19">
-        <v>0.2300853654389008</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>96.79587533333334</v>
-      </c>
-      <c r="N19">
-        <v>290.387626</v>
-      </c>
-      <c r="O19">
-        <v>0.4493024755675664</v>
-      </c>
-      <c r="P19">
-        <v>0.4637722671001167</v>
-      </c>
-      <c r="Q19">
-        <v>16.37108639512667</v>
-      </c>
-      <c r="R19">
-        <v>147.33977755614</v>
-      </c>
-      <c r="S19">
-        <v>0.08389696355537364</v>
-      </c>
-      <c r="T19">
-        <v>0.1067072115561579</v>
+      <c r="G24">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.156593</v>
+      </c>
+      <c r="I24">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J24">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>209.6152953333334</v>
+      </c>
+      <c r="N24">
+        <v>628.8458860000001</v>
+      </c>
+      <c r="O24">
+        <v>0.5454690975693403</v>
+      </c>
+      <c r="P24">
+        <v>0.5536359171166931</v>
+      </c>
+      <c r="Q24">
+        <v>10.94142931404422</v>
+      </c>
+      <c r="R24">
+        <v>98.47286382639801</v>
+      </c>
+      <c r="S24">
+        <v>0.007363991836672252</v>
+      </c>
+      <c r="T24">
+        <v>0.007520378433339394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.156593</v>
+      </c>
+      <c r="I25">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J25">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.14006033333333</v>
+      </c>
+      <c r="N25">
+        <v>174.420181</v>
+      </c>
+      <c r="O25">
+        <v>0.1512943327547681</v>
+      </c>
+      <c r="P25">
+        <v>0.1535595270978597</v>
+      </c>
+      <c r="Q25">
+        <v>3.034775489259222</v>
+      </c>
+      <c r="R25">
+        <v>27.312979403333</v>
+      </c>
+      <c r="S25">
+        <v>0.002042517598715588</v>
+      </c>
+      <c r="T25">
+        <v>0.002085893852109185</v>
       </c>
     </row>
   </sheetData>
